--- a/이공계_대계열_요약_20220627.xlsx
+++ b/이공계_대계열_요약_20220627.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="21">
   <si>
     <t>졸업자_남자_비중</t>
   </si>
@@ -511,9 +511,15 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
@@ -540,9 +546,15 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -569,8 +581,12 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
@@ -600,9 +616,15 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
@@ -629,9 +651,15 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
@@ -658,8 +686,12 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
@@ -689,9 +721,15 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
@@ -718,9 +756,15 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
@@ -747,7 +791,9 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>2011</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -780,9 +826,15 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
@@ -809,9 +861,15 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
@@ -838,8 +896,12 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
@@ -869,9 +931,15 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
@@ -898,9 +966,15 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
@@ -927,8 +1001,12 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
@@ -958,9 +1036,15 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
@@ -987,9 +1071,15 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +1106,9 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>2011</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1049,9 +1141,15 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1078,9 +1176,15 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1107,8 +1211,12 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1138,9 +1246,15 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1167,9 +1281,15 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,8 +1316,12 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,9 +1351,15 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1256,9 +1386,15 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,7 +1421,9 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>2011</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1318,9 +1456,15 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1347,9 +1491,15 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1376,8 +1526,12 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1407,9 +1561,15 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1436,9 +1596,15 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
@@ -1465,8 +1631,12 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1496,9 +1666,15 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1525,9 +1701,15 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A37" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1589,9 +1771,15 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
@@ -1618,9 +1806,15 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,8 +1841,12 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
@@ -1678,9 +1876,15 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>19</v>
       </c>
@@ -1707,9 +1911,15 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="A43" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
@@ -1736,8 +1946,12 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="A44" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>17</v>
       </c>
@@ -1767,9 +1981,15 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>19</v>
       </c>
@@ -1796,9 +2016,15 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>20</v>
       </c>
@@ -1825,7 +2051,9 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>2012</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
@@ -1858,9 +2086,15 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>19</v>
       </c>
@@ -1887,9 +2121,15 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>20</v>
       </c>
@@ -1916,8 +2156,12 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="A50" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
@@ -1947,9 +2191,15 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1976,9 +2226,15 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="A52" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
@@ -2005,8 +2261,12 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="A53" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>17</v>
       </c>
@@ -2036,9 +2296,15 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
@@ -2065,9 +2331,15 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,7 +2366,9 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>2012</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>13</v>
       </c>
@@ -2127,9 +2401,15 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
@@ -2156,9 +2436,15 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>20</v>
       </c>
@@ -2185,8 +2471,12 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
@@ -2216,9 +2506,15 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>19</v>
       </c>
@@ -2245,9 +2541,15 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>20</v>
       </c>
@@ -2274,8 +2576,12 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
@@ -2305,9 +2611,15 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
@@ -2334,9 +2646,15 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2363,7 +2681,9 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1">
+        <v>2012</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
@@ -2396,9 +2716,15 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D66" s="1" t="s">
         <v>19</v>
       </c>
@@ -2425,9 +2751,15 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D67" s="1" t="s">
         <v>20</v>
       </c>
@@ -2454,8 +2786,12 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>16</v>
       </c>
@@ -2485,9 +2821,15 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>19</v>
       </c>
@@ -2514,9 +2856,15 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>20</v>
       </c>
@@ -2543,8 +2891,12 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>17</v>
       </c>
@@ -2574,9 +2926,15 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>19</v>
       </c>
@@ -2603,9 +2961,15 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>20</v>
       </c>
@@ -2667,9 +3031,15 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
@@ -2696,9 +3066,15 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>20</v>
       </c>
@@ -2725,8 +3101,12 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
@@ -2756,9 +3136,15 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>19</v>
       </c>
@@ -2785,9 +3171,15 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3206,12 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="A80" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C80" s="1" t="s">
         <v>17</v>
       </c>
@@ -2845,9 +3241,15 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>19</v>
       </c>
@@ -2874,9 +3276,15 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>20</v>
       </c>
@@ -2903,7 +3311,9 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>2013</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>12</v>
       </c>
@@ -2936,9 +3346,15 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>19</v>
       </c>
@@ -2965,9 +3381,15 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>20</v>
       </c>
@@ -2994,8 +3416,12 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="A86" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>16</v>
       </c>
@@ -3025,9 +3451,15 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D87" s="1" t="s">
         <v>19</v>
       </c>
@@ -3054,9 +3486,15 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>20</v>
       </c>
@@ -3083,8 +3521,12 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="A89" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>17</v>
       </c>
@@ -3114,9 +3556,15 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>19</v>
       </c>
@@ -3143,9 +3591,15 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>20</v>
       </c>
@@ -3172,7 +3626,9 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>2013</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>13</v>
       </c>
@@ -3205,9 +3661,15 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="A93" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D93" s="1" t="s">
         <v>19</v>
       </c>
@@ -3234,9 +3696,15 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="A94" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>20</v>
       </c>
@@ -3263,8 +3731,12 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="A95" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
       </c>
@@ -3294,9 +3766,15 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="A96" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D96" s="1" t="s">
         <v>19</v>
       </c>
@@ -3323,9 +3801,15 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="A97" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D97" s="1" t="s">
         <v>20</v>
       </c>
@@ -3352,8 +3836,12 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="A98" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>17</v>
       </c>
@@ -3383,9 +3871,15 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="A99" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D99" s="1" t="s">
         <v>19</v>
       </c>
@@ -3412,9 +3906,15 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="A100" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D100" s="1" t="s">
         <v>20</v>
       </c>
@@ -3441,7 +3941,9 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>2013</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>14</v>
       </c>
@@ -3474,9 +3976,15 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="A102" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D102" s="1" t="s">
         <v>19</v>
       </c>
@@ -3503,9 +4011,15 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="A103" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D103" s="1" t="s">
         <v>20</v>
       </c>
@@ -3532,8 +4046,12 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>16</v>
       </c>
@@ -3563,9 +4081,15 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="A105" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D105" s="1" t="s">
         <v>19</v>
       </c>
@@ -3592,9 +4116,15 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="A106" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D106" s="1" t="s">
         <v>20</v>
       </c>
@@ -3621,8 +4151,12 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C107" s="1" t="s">
         <v>17</v>
       </c>
@@ -3652,9 +4186,15 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="A108" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D108" s="1" t="s">
         <v>19</v>
       </c>
@@ -3681,9 +4221,15 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="A109" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D109" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,9 +4291,15 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="A111" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D111" s="1" t="s">
         <v>19</v>
       </c>
@@ -3774,9 +4326,15 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="A112" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D112" s="1" t="s">
         <v>20</v>
       </c>
@@ -3803,8 +4361,12 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>16</v>
       </c>
@@ -3834,9 +4396,15 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="A114" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D114" s="1" t="s">
         <v>19</v>
       </c>
@@ -3863,9 +4431,15 @@
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="A115" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D115" s="1" t="s">
         <v>20</v>
       </c>
@@ -3892,8 +4466,12 @@
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="A116" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>17</v>
       </c>
@@ -3923,9 +4501,15 @@
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="A117" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D117" s="1" t="s">
         <v>19</v>
       </c>
@@ -3952,9 +4536,15 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="A118" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D118" s="1" t="s">
         <v>20</v>
       </c>
@@ -3981,7 +4571,9 @@
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1">
+        <v>2014</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>12</v>
       </c>
@@ -4014,9 +4606,15 @@
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="A120" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D120" s="1" t="s">
         <v>19</v>
       </c>
@@ -4043,9 +4641,15 @@
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="A121" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D121" s="1" t="s">
         <v>20</v>
       </c>
@@ -4072,8 +4676,12 @@
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="A122" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>16</v>
       </c>
@@ -4103,9 +4711,15 @@
       </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="A123" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D123" s="1" t="s">
         <v>19</v>
       </c>
@@ -4132,9 +4746,15 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="A124" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D124" s="1" t="s">
         <v>20</v>
       </c>
@@ -4161,8 +4781,12 @@
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="A125" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>17</v>
       </c>
@@ -4192,9 +4816,15 @@
       </c>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="A126" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D126" s="1" t="s">
         <v>19</v>
       </c>
@@ -4221,9 +4851,15 @@
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="A127" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D127" s="1" t="s">
         <v>20</v>
       </c>
@@ -4250,7 +4886,9 @@
       </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1">
+        <v>2014</v>
+      </c>
       <c r="B128" s="1" t="s">
         <v>13</v>
       </c>
@@ -4283,9 +4921,15 @@
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="A129" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D129" s="1" t="s">
         <v>19</v>
       </c>
@@ -4312,9 +4956,15 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="A130" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D130" s="1" t="s">
         <v>20</v>
       </c>
@@ -4341,8 +4991,12 @@
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="A131" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>16</v>
       </c>
@@ -4372,9 +5026,15 @@
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="A132" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D132" s="1" t="s">
         <v>19</v>
       </c>
@@ -4401,9 +5061,15 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="A133" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D133" s="1" t="s">
         <v>20</v>
       </c>
@@ -4430,8 +5096,12 @@
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="A134" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C134" s="1" t="s">
         <v>17</v>
       </c>
@@ -4461,9 +5131,15 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D135" s="1" t="s">
         <v>19</v>
       </c>
@@ -4490,9 +5166,15 @@
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="A136" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D136" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,7 +5201,9 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>2014</v>
+      </c>
       <c r="B137" s="1" t="s">
         <v>14</v>
       </c>
@@ -4552,9 +5236,15 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="A138" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D138" s="1" t="s">
         <v>19</v>
       </c>
@@ -4581,9 +5271,15 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="A139" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D139" s="1" t="s">
         <v>20</v>
       </c>
@@ -4610,8 +5306,12 @@
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="A140" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>16</v>
       </c>
@@ -4641,9 +5341,15 @@
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="A141" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D141" s="1" t="s">
         <v>19</v>
       </c>
@@ -4670,9 +5376,15 @@
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D142" s="1" t="s">
         <v>20</v>
       </c>
@@ -4699,8 +5411,12 @@
       </c>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="A143" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C143" s="1" t="s">
         <v>17</v>
       </c>
@@ -4730,9 +5446,15 @@
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="A144" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D144" s="1" t="s">
         <v>19</v>
       </c>
@@ -4759,9 +5481,15 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="A145" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D145" s="1" t="s">
         <v>20</v>
       </c>
@@ -4823,9 +5551,15 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="A147" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D147" s="1" t="s">
         <v>19</v>
       </c>
@@ -4852,9 +5586,15 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="A148" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D148" s="1" t="s">
         <v>20</v>
       </c>
@@ -4881,8 +5621,12 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="A149" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C149" s="1" t="s">
         <v>16</v>
       </c>
@@ -4912,9 +5656,15 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="A150" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D150" s="1" t="s">
         <v>19</v>
       </c>
@@ -4941,9 +5691,15 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="A151" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D151" s="1" t="s">
         <v>20</v>
       </c>
@@ -4970,8 +5726,12 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="A152" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>17</v>
       </c>
@@ -5001,9 +5761,15 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="A153" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D153" s="1" t="s">
         <v>19</v>
       </c>
@@ -5030,9 +5796,15 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="A154" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D154" s="1" t="s">
         <v>20</v>
       </c>
@@ -5059,7 +5831,9 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1">
+        <v>2015</v>
+      </c>
       <c r="B155" s="1" t="s">
         <v>12</v>
       </c>
@@ -5092,9 +5866,15 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="A156" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D156" s="1" t="s">
         <v>19</v>
       </c>
@@ -5121,9 +5901,15 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="A157" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D157" s="1" t="s">
         <v>20</v>
       </c>
@@ -5150,8 +5936,12 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="A158" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C158" s="1" t="s">
         <v>16</v>
       </c>
@@ -5181,9 +5971,15 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="A159" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D159" s="1" t="s">
         <v>19</v>
       </c>
@@ -5210,9 +6006,15 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D160" s="1" t="s">
         <v>20</v>
       </c>
@@ -5239,8 +6041,12 @@
       </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="A161" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C161" s="1" t="s">
         <v>17</v>
       </c>
@@ -5270,9 +6076,15 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="A162" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D162" s="1" t="s">
         <v>19</v>
       </c>
@@ -5299,9 +6111,15 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="A163" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D163" s="1" t="s">
         <v>20</v>
       </c>
@@ -5328,7 +6146,9 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>2015</v>
+      </c>
       <c r="B164" s="1" t="s">
         <v>13</v>
       </c>
@@ -5361,9 +6181,15 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D165" s="1" t="s">
         <v>19</v>
       </c>
@@ -5390,9 +6216,15 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A166" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D166" s="1" t="s">
         <v>20</v>
       </c>
@@ -5419,8 +6251,12 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="A167" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>16</v>
       </c>
@@ -5450,9 +6286,15 @@
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="A168" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D168" s="1" t="s">
         <v>19</v>
       </c>
@@ -5479,9 +6321,15 @@
       </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="A169" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D169" s="1" t="s">
         <v>20</v>
       </c>
@@ -5508,8 +6356,12 @@
       </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="A170" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C170" s="1" t="s">
         <v>17</v>
       </c>
@@ -5539,9 +6391,15 @@
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="A171" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D171" s="1" t="s">
         <v>19</v>
       </c>
@@ -5568,9 +6426,15 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="A172" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D172" s="1" t="s">
         <v>20</v>
       </c>
@@ -5597,7 +6461,9 @@
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1">
+        <v>2015</v>
+      </c>
       <c r="B173" s="1" t="s">
         <v>14</v>
       </c>
@@ -5630,9 +6496,15 @@
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="A174" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D174" s="1" t="s">
         <v>19</v>
       </c>
@@ -5659,9 +6531,15 @@
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="A175" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D175" s="1" t="s">
         <v>20</v>
       </c>
@@ -5688,8 +6566,12 @@
       </c>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="A176" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C176" s="1" t="s">
         <v>16</v>
       </c>
@@ -5719,9 +6601,15 @@
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="A177" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D177" s="1" t="s">
         <v>19</v>
       </c>
@@ -5748,9 +6636,15 @@
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="A178" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D178" s="1" t="s">
         <v>20</v>
       </c>
@@ -5777,8 +6671,12 @@
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="A179" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>17</v>
       </c>
@@ -5808,9 +6706,15 @@
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="A180" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D180" s="1" t="s">
         <v>19</v>
       </c>
@@ -5837,9 +6741,15 @@
       </c>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="A181" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D181" s="1" t="s">
         <v>20</v>
       </c>
@@ -5901,9 +6811,15 @@
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="A183" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D183" s="1" t="s">
         <v>19</v>
       </c>
@@ -5930,9 +6846,15 @@
       </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="A184" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D184" s="1" t="s">
         <v>20</v>
       </c>
@@ -5959,8 +6881,12 @@
       </c>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="A185" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C185" s="1" t="s">
         <v>16</v>
       </c>
@@ -5990,9 +6916,15 @@
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="A186" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D186" s="1" t="s">
         <v>19</v>
       </c>
@@ -6019,9 +6951,15 @@
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="A187" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D187" s="1" t="s">
         <v>20</v>
       </c>
@@ -6048,8 +6986,12 @@
       </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="A188" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C188" s="1" t="s">
         <v>17</v>
       </c>
@@ -6079,9 +7021,15 @@
       </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="A189" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D189" s="1" t="s">
         <v>19</v>
       </c>
@@ -6108,9 +7056,15 @@
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="A190" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D190" s="1" t="s">
         <v>20</v>
       </c>
@@ -6137,7 +7091,9 @@
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1">
+        <v>2016</v>
+      </c>
       <c r="B191" s="1" t="s">
         <v>12</v>
       </c>
@@ -6170,9 +7126,15 @@
       </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
+      <c r="A192" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D192" s="1" t="s">
         <v>19</v>
       </c>
@@ -6199,9 +7161,15 @@
       </c>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
+      <c r="A193" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D193" s="1" t="s">
         <v>20</v>
       </c>
@@ -6228,8 +7196,12 @@
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="A194" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C194" s="1" t="s">
         <v>16</v>
       </c>
@@ -6259,9 +7231,15 @@
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="A195" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D195" s="1" t="s">
         <v>19</v>
       </c>
@@ -6288,9 +7266,15 @@
       </c>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
+      <c r="A196" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D196" s="1" t="s">
         <v>20</v>
       </c>
@@ -6317,8 +7301,12 @@
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="A197" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C197" s="1" t="s">
         <v>17</v>
       </c>
@@ -6348,9 +7336,15 @@
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="A198" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D198" s="1" t="s">
         <v>19</v>
       </c>
@@ -6377,9 +7371,15 @@
       </c>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+      <c r="A199" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D199" s="1" t="s">
         <v>20</v>
       </c>
@@ -6406,7 +7406,9 @@
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1">
+        <v>2016</v>
+      </c>
       <c r="B200" s="1" t="s">
         <v>13</v>
       </c>
@@ -6439,9 +7441,15 @@
       </c>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
+      <c r="A201" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D201" s="1" t="s">
         <v>19</v>
       </c>
@@ -6468,9 +7476,15 @@
       </c>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
+      <c r="A202" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D202" s="1" t="s">
         <v>20</v>
       </c>
@@ -6497,8 +7511,12 @@
       </c>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="A203" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C203" s="1" t="s">
         <v>16</v>
       </c>
@@ -6528,9 +7546,15 @@
       </c>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
+      <c r="A204" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D204" s="1" t="s">
         <v>19</v>
       </c>
@@ -6557,9 +7581,15 @@
       </c>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
+      <c r="A205" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D205" s="1" t="s">
         <v>20</v>
       </c>
@@ -6586,8 +7616,12 @@
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="A206" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C206" s="1" t="s">
         <v>17</v>
       </c>
@@ -6617,9 +7651,15 @@
       </c>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
+      <c r="A207" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D207" s="1" t="s">
         <v>19</v>
       </c>
@@ -6646,9 +7686,15 @@
       </c>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
+      <c r="A208" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D208" s="1" t="s">
         <v>20</v>
       </c>
@@ -6675,7 +7721,9 @@
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1">
+        <v>2016</v>
+      </c>
       <c r="B209" s="1" t="s">
         <v>14</v>
       </c>
@@ -6708,9 +7756,15 @@
       </c>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
+      <c r="A210" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D210" s="1" t="s">
         <v>19</v>
       </c>
@@ -6737,9 +7791,15 @@
       </c>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+      <c r="A211" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D211" s="1" t="s">
         <v>20</v>
       </c>
@@ -6766,8 +7826,12 @@
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="A212" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C212" s="1" t="s">
         <v>16</v>
       </c>
@@ -6797,9 +7861,15 @@
       </c>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
+      <c r="A213" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D213" s="1" t="s">
         <v>19</v>
       </c>
@@ -6826,9 +7896,15 @@
       </c>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
+      <c r="A214" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D214" s="1" t="s">
         <v>20</v>
       </c>
@@ -6855,8 +7931,12 @@
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="A215" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C215" s="1" t="s">
         <v>17</v>
       </c>
@@ -6886,9 +7966,15 @@
       </c>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="A216" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D216" s="1" t="s">
         <v>19</v>
       </c>
@@ -6915,9 +8001,15 @@
       </c>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
+      <c r="A217" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D217" s="1" t="s">
         <v>20</v>
       </c>
@@ -6979,9 +8071,15 @@
       </c>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="A219" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D219" s="1" t="s">
         <v>19</v>
       </c>
@@ -7008,9 +8106,15 @@
       </c>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
+      <c r="A220" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D220" s="1" t="s">
         <v>20</v>
       </c>
@@ -7037,8 +8141,12 @@
       </c>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="A221" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C221" s="1" t="s">
         <v>16</v>
       </c>
@@ -7068,9 +8176,15 @@
       </c>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
+      <c r="A222" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D222" s="1" t="s">
         <v>19</v>
       </c>
@@ -7097,9 +8211,15 @@
       </c>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="A223" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D223" s="1" t="s">
         <v>20</v>
       </c>
@@ -7126,8 +8246,12 @@
       </c>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
+      <c r="A224" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C224" s="1" t="s">
         <v>17</v>
       </c>
@@ -7157,9 +8281,15 @@
       </c>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
+      <c r="A225" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D225" s="1" t="s">
         <v>19</v>
       </c>
@@ -7186,9 +8316,15 @@
       </c>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="A226" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D226" s="1" t="s">
         <v>20</v>
       </c>
@@ -7215,7 +8351,9 @@
       </c>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1">
+        <v>2017</v>
+      </c>
       <c r="B227" s="1" t="s">
         <v>12</v>
       </c>
@@ -7248,9 +8386,15 @@
       </c>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
+      <c r="A228" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D228" s="1" t="s">
         <v>19</v>
       </c>
@@ -7277,9 +8421,15 @@
       </c>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
+      <c r="A229" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D229" s="1" t="s">
         <v>20</v>
       </c>
@@ -7306,8 +8456,12 @@
       </c>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="A230" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C230" s="1" t="s">
         <v>16</v>
       </c>
@@ -7337,9 +8491,15 @@
       </c>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
+      <c r="A231" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D231" s="1" t="s">
         <v>19</v>
       </c>
@@ -7366,9 +8526,15 @@
       </c>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="A232" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D232" s="1" t="s">
         <v>20</v>
       </c>
@@ -7395,8 +8561,12 @@
       </c>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
+      <c r="A233" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C233" s="1" t="s">
         <v>17</v>
       </c>
@@ -7426,9 +8596,15 @@
       </c>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
+      <c r="A234" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D234" s="1" t="s">
         <v>19</v>
       </c>
@@ -7455,9 +8631,15 @@
       </c>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
+      <c r="A235" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D235" s="1" t="s">
         <v>20</v>
       </c>
@@ -7484,7 +8666,9 @@
       </c>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1">
+        <v>2017</v>
+      </c>
       <c r="B236" s="1" t="s">
         <v>13</v>
       </c>
@@ -7517,9 +8701,15 @@
       </c>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
+      <c r="A237" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D237" s="1" t="s">
         <v>19</v>
       </c>
@@ -7546,9 +8736,15 @@
       </c>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="A238" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D238" s="1" t="s">
         <v>20</v>
       </c>
@@ -7575,8 +8771,12 @@
       </c>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
+      <c r="A239" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C239" s="1" t="s">
         <v>16</v>
       </c>
@@ -7606,9 +8806,15 @@
       </c>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
+      <c r="A240" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D240" s="1" t="s">
         <v>19</v>
       </c>
@@ -7635,9 +8841,15 @@
       </c>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
+      <c r="A241" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D241" s="1" t="s">
         <v>20</v>
       </c>
@@ -7664,8 +8876,12 @@
       </c>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
+      <c r="A242" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C242" s="1" t="s">
         <v>17</v>
       </c>
@@ -7695,9 +8911,15 @@
       </c>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
+      <c r="A243" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D243" s="1" t="s">
         <v>19</v>
       </c>
@@ -7724,9 +8946,15 @@
       </c>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
+      <c r="A244" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D244" s="1" t="s">
         <v>20</v>
       </c>
@@ -7753,7 +8981,9 @@
       </c>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1">
+        <v>2017</v>
+      </c>
       <c r="B245" s="1" t="s">
         <v>14</v>
       </c>
@@ -7786,9 +9016,15 @@
       </c>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
+      <c r="A246" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D246" s="1" t="s">
         <v>19</v>
       </c>
@@ -7815,9 +9051,15 @@
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
+      <c r="A247" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D247" s="1" t="s">
         <v>20</v>
       </c>
@@ -7844,8 +9086,12 @@
       </c>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
+      <c r="A248" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C248" s="1" t="s">
         <v>16</v>
       </c>
@@ -7875,9 +9121,15 @@
       </c>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
+      <c r="A249" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D249" s="1" t="s">
         <v>19</v>
       </c>
@@ -7904,9 +9156,15 @@
       </c>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
+      <c r="A250" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D250" s="1" t="s">
         <v>20</v>
       </c>
@@ -7933,8 +9191,12 @@
       </c>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
+      <c r="A251" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C251" s="1" t="s">
         <v>17</v>
       </c>
@@ -7964,9 +9226,15 @@
       </c>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
+      <c r="A252" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D252" s="1" t="s">
         <v>19</v>
       </c>
@@ -7993,9 +9261,15 @@
       </c>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+      <c r="A253" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D253" s="1" t="s">
         <v>20</v>
       </c>
@@ -8057,9 +9331,15 @@
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
+      <c r="A255" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D255" s="1" t="s">
         <v>19</v>
       </c>
@@ -8086,9 +9366,15 @@
       </c>
     </row>
     <row r="256" spans="1:11">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
+      <c r="A256" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D256" s="1" t="s">
         <v>20</v>
       </c>
@@ -8115,8 +9401,12 @@
       </c>
     </row>
     <row r="257" spans="1:11">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
+      <c r="A257" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C257" s="1" t="s">
         <v>16</v>
       </c>
@@ -8146,9 +9436,15 @@
       </c>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
+      <c r="A258" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D258" s="1" t="s">
         <v>19</v>
       </c>
@@ -8175,9 +9471,15 @@
       </c>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
+      <c r="A259" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D259" s="1" t="s">
         <v>20</v>
       </c>
@@ -8204,8 +9506,12 @@
       </c>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
+      <c r="A260" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C260" s="1" t="s">
         <v>17</v>
       </c>
@@ -8235,9 +9541,15 @@
       </c>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
+      <c r="A261" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D261" s="1" t="s">
         <v>19</v>
       </c>
@@ -8264,9 +9576,15 @@
       </c>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
+      <c r="A262" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D262" s="1" t="s">
         <v>20</v>
       </c>
@@ -8293,7 +9611,9 @@
       </c>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="1"/>
+      <c r="A263" s="1">
+        <v>2018</v>
+      </c>
       <c r="B263" s="1" t="s">
         <v>12</v>
       </c>
@@ -8326,9 +9646,15 @@
       </c>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
+      <c r="A264" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D264" s="1" t="s">
         <v>19</v>
       </c>
@@ -8355,9 +9681,15 @@
       </c>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
+      <c r="A265" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D265" s="1" t="s">
         <v>20</v>
       </c>
@@ -8384,8 +9716,12 @@
       </c>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
+      <c r="A266" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C266" s="1" t="s">
         <v>16</v>
       </c>
@@ -8415,9 +9751,15 @@
       </c>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
+      <c r="A267" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D267" s="1" t="s">
         <v>19</v>
       </c>
@@ -8444,9 +9786,15 @@
       </c>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
+      <c r="A268" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D268" s="1" t="s">
         <v>20</v>
       </c>
@@ -8473,8 +9821,12 @@
       </c>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
+      <c r="A269" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C269" s="1" t="s">
         <v>17</v>
       </c>
@@ -8504,9 +9856,15 @@
       </c>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
+      <c r="A270" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D270" s="1" t="s">
         <v>19</v>
       </c>
@@ -8533,9 +9891,15 @@
       </c>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
+      <c r="A271" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D271" s="1" t="s">
         <v>20</v>
       </c>
@@ -8562,7 +9926,9 @@
       </c>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="1"/>
+      <c r="A272" s="1">
+        <v>2018</v>
+      </c>
       <c r="B272" s="1" t="s">
         <v>13</v>
       </c>
@@ -8595,9 +9961,15 @@
       </c>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="A273" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D273" s="1" t="s">
         <v>19</v>
       </c>
@@ -8624,9 +9996,15 @@
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
+      <c r="A274" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D274" s="1" t="s">
         <v>20</v>
       </c>
@@ -8653,8 +10031,12 @@
       </c>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
+      <c r="A275" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C275" s="1" t="s">
         <v>16</v>
       </c>
@@ -8684,9 +10066,15 @@
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
+      <c r="A276" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D276" s="1" t="s">
         <v>19</v>
       </c>
@@ -8713,9 +10101,15 @@
       </c>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
+      <c r="A277" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D277" s="1" t="s">
         <v>20</v>
       </c>
@@ -8742,8 +10136,12 @@
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
+      <c r="A278" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C278" s="1" t="s">
         <v>17</v>
       </c>
@@ -8773,9 +10171,15 @@
       </c>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
+      <c r="A279" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D279" s="1" t="s">
         <v>19</v>
       </c>
@@ -8802,9 +10206,15 @@
       </c>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
+      <c r="A280" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D280" s="1" t="s">
         <v>20</v>
       </c>
@@ -8831,7 +10241,9 @@
       </c>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1">
+        <v>2018</v>
+      </c>
       <c r="B281" s="1" t="s">
         <v>14</v>
       </c>
@@ -8864,9 +10276,15 @@
       </c>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
+      <c r="A282" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D282" s="1" t="s">
         <v>19</v>
       </c>
@@ -8893,9 +10311,15 @@
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
+      <c r="A283" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D283" s="1" t="s">
         <v>20</v>
       </c>
@@ -8922,8 +10346,12 @@
       </c>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
+      <c r="A284" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C284" s="1" t="s">
         <v>16</v>
       </c>
@@ -8953,9 +10381,15 @@
       </c>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
+      <c r="A285" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D285" s="1" t="s">
         <v>19</v>
       </c>
@@ -8982,9 +10416,15 @@
       </c>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
+      <c r="A286" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D286" s="1" t="s">
         <v>20</v>
       </c>
@@ -9011,8 +10451,12 @@
       </c>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
+      <c r="A287" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C287" s="1" t="s">
         <v>17</v>
       </c>
@@ -9042,9 +10486,15 @@
       </c>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
+      <c r="A288" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D288" s="1" t="s">
         <v>19</v>
       </c>
@@ -9071,9 +10521,15 @@
       </c>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+      <c r="A289" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D289" s="1" t="s">
         <v>20</v>
       </c>
@@ -9135,9 +10591,15 @@
       </c>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
+      <c r="A291" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D291" s="1" t="s">
         <v>19</v>
       </c>
@@ -9164,9 +10626,15 @@
       </c>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="A292" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D292" s="1" t="s">
         <v>20</v>
       </c>
@@ -9193,8 +10661,12 @@
       </c>
     </row>
     <row r="293" spans="1:11">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
+      <c r="A293" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C293" s="1" t="s">
         <v>16</v>
       </c>
@@ -9224,9 +10696,15 @@
       </c>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
+      <c r="A294" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D294" s="1" t="s">
         <v>19</v>
       </c>
@@ -9253,9 +10731,15 @@
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
+      <c r="A295" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D295" s="1" t="s">
         <v>20</v>
       </c>
@@ -9282,8 +10766,12 @@
       </c>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
+      <c r="A296" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C296" s="1" t="s">
         <v>17</v>
       </c>
@@ -9313,9 +10801,15 @@
       </c>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
+      <c r="A297" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D297" s="1" t="s">
         <v>19</v>
       </c>
@@ -9342,9 +10836,15 @@
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
+      <c r="A298" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D298" s="1" t="s">
         <v>20</v>
       </c>
@@ -9371,7 +10871,9 @@
       </c>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="1"/>
+      <c r="A299" s="1">
+        <v>2019</v>
+      </c>
       <c r="B299" s="1" t="s">
         <v>12</v>
       </c>
@@ -9404,9 +10906,15 @@
       </c>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
+      <c r="A300" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D300" s="1" t="s">
         <v>19</v>
       </c>
@@ -9433,9 +10941,15 @@
       </c>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
+      <c r="A301" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D301" s="1" t="s">
         <v>20</v>
       </c>
@@ -9462,8 +10976,12 @@
       </c>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
+      <c r="A302" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C302" s="1" t="s">
         <v>16</v>
       </c>
@@ -9493,9 +11011,15 @@
       </c>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
+      <c r="A303" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D303" s="1" t="s">
         <v>19</v>
       </c>
@@ -9522,9 +11046,15 @@
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
+      <c r="A304" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D304" s="1" t="s">
         <v>20</v>
       </c>
@@ -9551,8 +11081,12 @@
       </c>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
+      <c r="A305" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C305" s="1" t="s">
         <v>17</v>
       </c>
@@ -9582,9 +11116,15 @@
       </c>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
+      <c r="A306" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D306" s="1" t="s">
         <v>19</v>
       </c>
@@ -9611,9 +11151,15 @@
       </c>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
+      <c r="A307" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D307" s="1" t="s">
         <v>20</v>
       </c>
@@ -9640,7 +11186,9 @@
       </c>
     </row>
     <row r="308" spans="1:11">
-      <c r="A308" s="1"/>
+      <c r="A308" s="1">
+        <v>2019</v>
+      </c>
       <c r="B308" s="1" t="s">
         <v>13</v>
       </c>
@@ -9673,9 +11221,15 @@
       </c>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
+      <c r="A309" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D309" s="1" t="s">
         <v>19</v>
       </c>
@@ -9702,9 +11256,15 @@
       </c>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
+      <c r="A310" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D310" s="1" t="s">
         <v>20</v>
       </c>
@@ -9731,8 +11291,12 @@
       </c>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
+      <c r="A311" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C311" s="1" t="s">
         <v>16</v>
       </c>
@@ -9762,9 +11326,15 @@
       </c>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
+      <c r="A312" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D312" s="1" t="s">
         <v>19</v>
       </c>
@@ -9791,9 +11361,15 @@
       </c>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
+      <c r="A313" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D313" s="1" t="s">
         <v>20</v>
       </c>
@@ -9820,8 +11396,12 @@
       </c>
     </row>
     <row r="314" spans="1:11">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
+      <c r="A314" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C314" s="1" t="s">
         <v>17</v>
       </c>
@@ -9851,9 +11431,15 @@
       </c>
     </row>
     <row r="315" spans="1:11">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
+      <c r="A315" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D315" s="1" t="s">
         <v>19</v>
       </c>
@@ -9880,9 +11466,15 @@
       </c>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
+      <c r="A316" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D316" s="1" t="s">
         <v>20</v>
       </c>
@@ -9909,7 +11501,9 @@
       </c>
     </row>
     <row r="317" spans="1:11">
-      <c r="A317" s="1"/>
+      <c r="A317" s="1">
+        <v>2019</v>
+      </c>
       <c r="B317" s="1" t="s">
         <v>14</v>
       </c>
@@ -9942,9 +11536,15 @@
       </c>
     </row>
     <row r="318" spans="1:11">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
+      <c r="A318" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D318" s="1" t="s">
         <v>19</v>
       </c>
@@ -9971,9 +11571,15 @@
       </c>
     </row>
     <row r="319" spans="1:11">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
+      <c r="A319" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D319" s="1" t="s">
         <v>20</v>
       </c>
@@ -10000,8 +11606,12 @@
       </c>
     </row>
     <row r="320" spans="1:11">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
+      <c r="A320" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C320" s="1" t="s">
         <v>16</v>
       </c>
@@ -10031,9 +11641,15 @@
       </c>
     </row>
     <row r="321" spans="1:11">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
+      <c r="A321" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D321" s="1" t="s">
         <v>19</v>
       </c>
@@ -10060,9 +11676,15 @@
       </c>
     </row>
     <row r="322" spans="1:11">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
+      <c r="A322" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D322" s="1" t="s">
         <v>20</v>
       </c>
@@ -10089,8 +11711,12 @@
       </c>
     </row>
     <row r="323" spans="1:11">
-      <c r="A323" s="1"/>
-      <c r="B323" s="1"/>
+      <c r="A323" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C323" s="1" t="s">
         <v>17</v>
       </c>
@@ -10120,9 +11746,15 @@
       </c>
     </row>
     <row r="324" spans="1:11">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
+      <c r="A324" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D324" s="1" t="s">
         <v>19</v>
       </c>
@@ -10149,9 +11781,15 @@
       </c>
     </row>
     <row r="325" spans="1:11">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
+      <c r="A325" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D325" s="1" t="s">
         <v>20</v>
       </c>
@@ -10213,9 +11851,15 @@
       </c>
     </row>
     <row r="327" spans="1:11">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
+      <c r="A327" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D327" s="1" t="s">
         <v>19</v>
       </c>
@@ -10242,9 +11886,15 @@
       </c>
     </row>
     <row r="328" spans="1:11">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
+      <c r="A328" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D328" s="1" t="s">
         <v>20</v>
       </c>
@@ -10271,8 +11921,12 @@
       </c>
     </row>
     <row r="329" spans="1:11">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
+      <c r="A329" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C329" s="1" t="s">
         <v>16</v>
       </c>
@@ -10302,9 +11956,15 @@
       </c>
     </row>
     <row r="330" spans="1:11">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
+      <c r="A330" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D330" s="1" t="s">
         <v>19</v>
       </c>
@@ -10331,9 +11991,15 @@
       </c>
     </row>
     <row r="331" spans="1:11">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
+      <c r="A331" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D331" s="1" t="s">
         <v>20</v>
       </c>
@@ -10360,8 +12026,12 @@
       </c>
     </row>
     <row r="332" spans="1:11">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
+      <c r="A332" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C332" s="1" t="s">
         <v>17</v>
       </c>
@@ -10391,9 +12061,15 @@
       </c>
     </row>
     <row r="333" spans="1:11">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
+      <c r="A333" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D333" s="1" t="s">
         <v>19</v>
       </c>
@@ -10420,9 +12096,15 @@
       </c>
     </row>
     <row r="334" spans="1:11">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
+      <c r="A334" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D334" s="1" t="s">
         <v>20</v>
       </c>
@@ -10449,7 +12131,9 @@
       </c>
     </row>
     <row r="335" spans="1:11">
-      <c r="A335" s="1"/>
+      <c r="A335" s="1">
+        <v>2020</v>
+      </c>
       <c r="B335" s="1" t="s">
         <v>12</v>
       </c>
@@ -10482,9 +12166,15 @@
       </c>
     </row>
     <row r="336" spans="1:11">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
+      <c r="A336" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D336" s="1" t="s">
         <v>19</v>
       </c>
@@ -10511,9 +12201,15 @@
       </c>
     </row>
     <row r="337" spans="1:11">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
+      <c r="A337" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D337" s="1" t="s">
         <v>20</v>
       </c>
@@ -10540,8 +12236,12 @@
       </c>
     </row>
     <row r="338" spans="1:11">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
+      <c r="A338" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C338" s="1" t="s">
         <v>16</v>
       </c>
@@ -10571,9 +12271,15 @@
       </c>
     </row>
     <row r="339" spans="1:11">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
+      <c r="A339" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D339" s="1" t="s">
         <v>19</v>
       </c>
@@ -10600,9 +12306,15 @@
       </c>
     </row>
     <row r="340" spans="1:11">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="A340" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D340" s="1" t="s">
         <v>20</v>
       </c>
@@ -10629,8 +12341,12 @@
       </c>
     </row>
     <row r="341" spans="1:11">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
+      <c r="A341" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C341" s="1" t="s">
         <v>17</v>
       </c>
@@ -10660,9 +12376,15 @@
       </c>
     </row>
     <row r="342" spans="1:11">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
+      <c r="A342" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D342" s="1" t="s">
         <v>19</v>
       </c>
@@ -10689,9 +12411,15 @@
       </c>
     </row>
     <row r="343" spans="1:11">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
+      <c r="A343" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D343" s="1" t="s">
         <v>20</v>
       </c>
@@ -10718,7 +12446,9 @@
       </c>
     </row>
     <row r="344" spans="1:11">
-      <c r="A344" s="1"/>
+      <c r="A344" s="1">
+        <v>2020</v>
+      </c>
       <c r="B344" s="1" t="s">
         <v>13</v>
       </c>
@@ -10751,9 +12481,15 @@
       </c>
     </row>
     <row r="345" spans="1:11">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
+      <c r="A345" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D345" s="1" t="s">
         <v>19</v>
       </c>
@@ -10780,9 +12516,15 @@
       </c>
     </row>
     <row r="346" spans="1:11">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
+      <c r="A346" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D346" s="1" t="s">
         <v>20</v>
       </c>
@@ -10809,8 +12551,12 @@
       </c>
     </row>
     <row r="347" spans="1:11">
-      <c r="A347" s="1"/>
-      <c r="B347" s="1"/>
+      <c r="A347" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C347" s="1" t="s">
         <v>16</v>
       </c>
@@ -10840,9 +12586,15 @@
       </c>
     </row>
     <row r="348" spans="1:11">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
+      <c r="A348" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D348" s="1" t="s">
         <v>19</v>
       </c>
@@ -10869,9 +12621,15 @@
       </c>
     </row>
     <row r="349" spans="1:11">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
+      <c r="A349" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D349" s="1" t="s">
         <v>20</v>
       </c>
@@ -10898,8 +12656,12 @@
       </c>
     </row>
     <row r="350" spans="1:11">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
+      <c r="A350" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C350" s="1" t="s">
         <v>17</v>
       </c>
@@ -10929,9 +12691,15 @@
       </c>
     </row>
     <row r="351" spans="1:11">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
+      <c r="A351" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D351" s="1" t="s">
         <v>19</v>
       </c>
@@ -10958,9 +12726,15 @@
       </c>
     </row>
     <row r="352" spans="1:11">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
+      <c r="A352" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D352" s="1" t="s">
         <v>20</v>
       </c>
@@ -10987,7 +12761,9 @@
       </c>
     </row>
     <row r="353" spans="1:11">
-      <c r="A353" s="1"/>
+      <c r="A353" s="1">
+        <v>2020</v>
+      </c>
       <c r="B353" s="1" t="s">
         <v>14</v>
       </c>
@@ -11020,9 +12796,15 @@
       </c>
     </row>
     <row r="354" spans="1:11">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
+      <c r="A354" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D354" s="1" t="s">
         <v>19</v>
       </c>
@@ -11049,9 +12831,15 @@
       </c>
     </row>
     <row r="355" spans="1:11">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
+      <c r="A355" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D355" s="1" t="s">
         <v>20</v>
       </c>
@@ -11078,8 +12866,12 @@
       </c>
     </row>
     <row r="356" spans="1:11">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
+      <c r="A356" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C356" s="1" t="s">
         <v>16</v>
       </c>
@@ -11109,9 +12901,15 @@
       </c>
     </row>
     <row r="357" spans="1:11">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
+      <c r="A357" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D357" s="1" t="s">
         <v>19</v>
       </c>
@@ -11138,9 +12936,15 @@
       </c>
     </row>
     <row r="358" spans="1:11">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
+      <c r="A358" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D358" s="1" t="s">
         <v>20</v>
       </c>
@@ -11167,8 +12971,12 @@
       </c>
     </row>
     <row r="359" spans="1:11">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
+      <c r="A359" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C359" s="1" t="s">
         <v>17</v>
       </c>
@@ -11198,9 +13006,15 @@
       </c>
     </row>
     <row r="360" spans="1:11">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
+      <c r="A360" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D360" s="1" t="s">
         <v>19</v>
       </c>
@@ -11227,9 +13041,15 @@
       </c>
     </row>
     <row r="361" spans="1:11">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
+      <c r="A361" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D361" s="1" t="s">
         <v>20</v>
       </c>
@@ -11256,178 +13076,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="170">
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="A38:A73"/>
-    <mergeCell ref="A74:A109"/>
-    <mergeCell ref="A110:A145"/>
-    <mergeCell ref="A146:A181"/>
-    <mergeCell ref="A182:A217"/>
-    <mergeCell ref="A218:A253"/>
-    <mergeCell ref="A254:A289"/>
-    <mergeCell ref="A290:A325"/>
-    <mergeCell ref="A326:A361"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="B101:B109"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="B119:B127"/>
-    <mergeCell ref="B128:B136"/>
-    <mergeCell ref="B137:B145"/>
-    <mergeCell ref="B146:B154"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="B164:B172"/>
-    <mergeCell ref="B173:B181"/>
-    <mergeCell ref="B182:B190"/>
-    <mergeCell ref="B191:B199"/>
-    <mergeCell ref="B200:B208"/>
-    <mergeCell ref="B209:B217"/>
-    <mergeCell ref="B218:B226"/>
-    <mergeCell ref="B227:B235"/>
-    <mergeCell ref="B236:B244"/>
-    <mergeCell ref="B245:B253"/>
-    <mergeCell ref="B254:B262"/>
-    <mergeCell ref="B263:B271"/>
-    <mergeCell ref="B272:B280"/>
-    <mergeCell ref="B281:B289"/>
-    <mergeCell ref="B290:B298"/>
-    <mergeCell ref="B299:B307"/>
-    <mergeCell ref="B308:B316"/>
-    <mergeCell ref="B317:B325"/>
-    <mergeCell ref="B326:B334"/>
-    <mergeCell ref="B335:B343"/>
-    <mergeCell ref="B344:B352"/>
-    <mergeCell ref="B353:B361"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="C233:C235"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="C245:C247"/>
-    <mergeCell ref="C248:C250"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="C254:C256"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="C275:C277"/>
-    <mergeCell ref="C278:C280"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="C290:C292"/>
-    <mergeCell ref="C293:C295"/>
-    <mergeCell ref="C296:C298"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="C302:C304"/>
-    <mergeCell ref="C305:C307"/>
-    <mergeCell ref="C308:C310"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="C320:C322"/>
-    <mergeCell ref="C323:C325"/>
-    <mergeCell ref="C326:C328"/>
-    <mergeCell ref="C329:C331"/>
-    <mergeCell ref="C332:C334"/>
-    <mergeCell ref="C335:C337"/>
-    <mergeCell ref="C338:C340"/>
-    <mergeCell ref="C341:C343"/>
-    <mergeCell ref="C344:C346"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="C350:C352"/>
-    <mergeCell ref="C353:C355"/>
-    <mergeCell ref="C356:C358"/>
-    <mergeCell ref="C359:C361"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>